--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2238078.501017915</v>
+        <v>-2240076.17403076</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>889989.48349648</v>
+        <v>961374.3909350407</v>
       </c>
     </row>
     <row r="8">
@@ -659,22 +659,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>238.5992852229257</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.1694735824163</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>8.77425528079505</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>84.57913653930274</v>
       </c>
     </row>
     <row r="3">
@@ -747,7 +747,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G3" t="n">
         <v>136.5310119231965</v>
@@ -859,25 +859,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>22.35153719005456</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>174.0382101334481</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>3.842927818592534</v>
       </c>
       <c r="T5" t="n">
-        <v>211.1174947684676</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.83094574014068</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>22.11041309544123</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,16 +1133,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>286.537379921803</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>88.0416447354268</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>169.0167291702125</v>
       </c>
       <c r="Y10" t="n">
-        <v>139.8939792152982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>33.35146980185857</v>
+        <v>33.35146980185879</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274019</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>94.16481274941243</v>
       </c>
       <c r="X16" t="n">
-        <v>33.35146980185857</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>8.525532102719421</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>12.68762643336711</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505273959</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2290,19 +2290,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>36.31437750815307</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>62.74236544294377</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2333,7 +2333,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I23" t="n">
         <v>81.7791350527408</v>
@@ -2476,25 +2476,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C25" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D25" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E25" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F25" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G25" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H25" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I25" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415232</v>
       </c>
       <c r="S25" t="n">
         <v>129.7889198539626</v>
@@ -2530,7 +2530,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U25" t="n">
-        <v>218.1054622689361</v>
+        <v>218.1054622689363</v>
       </c>
       <c r="V25" t="n">
         <v>184.0057531941873</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463147</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415187</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2767,7 +2767,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U28" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689361</v>
       </c>
       <c r="V28" t="n">
         <v>184.0057531941873</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D31" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G31" t="n">
         <v>98.36167833373693</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378952</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689368</v>
+        <v>218.1054622689363</v>
       </c>
       <c r="V31" t="n">
         <v>184.0057531941873</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539627</v>
       </c>
       <c r="T34" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689361</v>
+        <v>218.1054622689365</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415187</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539627</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T37" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689372</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373703</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463127</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415232</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3715,19 +3715,19 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689365</v>
+        <v>218.1054622689361</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3755,10 +3755,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789537</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3952,19 +3952,19 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689361</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373703</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4189,7 +4189,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>218.1054622689372</v>
+        <v>218.1054622689363</v>
       </c>
       <c r="V46" t="n">
         <v>184.0057531941873</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>712.9161689352338</v>
+        <v>1091.443392905321</v>
       </c>
       <c r="C2" t="n">
-        <v>712.9161689352338</v>
+        <v>722.4808759649093</v>
       </c>
       <c r="D2" t="n">
-        <v>712.9161689352338</v>
+        <v>364.2151773581587</v>
       </c>
       <c r="E2" t="n">
-        <v>471.9067899221776</v>
+        <v>364.2151773581587</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>364.2151773581587</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>364.2151773581587</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2215.889754506361</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>1863.121099236247</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X2" t="n">
-        <v>1489.655340975167</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y2" t="n">
-        <v>1099.516008999356</v>
+        <v>1478.043232969443</v>
       </c>
     </row>
     <row r="3">
@@ -4389,34 +4389,34 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4492,37 +4492,37 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782191</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T4" t="n">
-        <v>484.4236418782191</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U4" t="n">
-        <v>484.4236418782191</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>229.7391536723322</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
         <v>53.94298182036445</v>
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1568.353113282533</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="C5" t="n">
-        <v>1568.353113282533</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D5" t="n">
-        <v>1210.087414675782</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2638.23865627741</v>
       </c>
       <c r="T5" t="n">
-        <v>2307.721608616769</v>
+        <v>2419.603989249473</v>
       </c>
       <c r="U5" t="n">
-        <v>2307.721608616769</v>
+        <v>2419.603989249473</v>
       </c>
       <c r="V5" t="n">
-        <v>2307.721608616769</v>
+        <v>2088.541101905902</v>
       </c>
       <c r="W5" t="n">
-        <v>1954.952953346655</v>
+        <v>2088.541101905902</v>
       </c>
       <c r="X5" t="n">
-        <v>1954.952953346655</v>
+        <v>1715.075343644822</v>
       </c>
       <c r="Y5" t="n">
-        <v>1954.952953346655</v>
+        <v>1715.075343644822</v>
       </c>
     </row>
     <row r="6">
@@ -4638,7 +4638,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>705.7952336049784</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>557.6485750391623</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782189</v>
+        <v>343.360151857325</v>
       </c>
       <c r="T7" t="n">
-        <v>257.1154545468206</v>
+        <v>343.360151857325</v>
       </c>
       <c r="U7" t="n">
-        <v>257.1154545468206</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V7" t="n">
-        <v>257.1154545468206</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>257.1154545468206</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>257.1154545468206</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>257.1154545468206</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1637.643464250441</v>
+        <v>768.2839875620912</v>
       </c>
       <c r="C8" t="n">
-        <v>1268.68094731003</v>
+        <v>768.2839875620912</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>768.2839875620912</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
         <v>471.9067899221776</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4835,19 +4835,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V8" t="n">
-        <v>2377.011959584677</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="W8" t="n">
-        <v>2024.243304314563</v>
+        <v>1528.349585887293</v>
       </c>
       <c r="X8" t="n">
-        <v>2024.243304314563</v>
+        <v>1154.883827626213</v>
       </c>
       <c r="Y8" t="n">
-        <v>2024.243304314563</v>
+        <v>1154.883827626213</v>
       </c>
     </row>
     <row r="9">
@@ -4884,7 +4884,7 @@
         <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
         <v>670.8219208598713</v>
@@ -4981,28 +4981,28 @@
         <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>484.423641878219</v>
+        <v>513.840561024597</v>
       </c>
       <c r="T10" t="n">
-        <v>484.423641878219</v>
+        <v>513.840561024597</v>
       </c>
       <c r="U10" t="n">
-        <v>195.2500315327869</v>
+        <v>224.666950679165</v>
       </c>
       <c r="V10" t="n">
-        <v>195.2500315327869</v>
+        <v>224.666950679165</v>
       </c>
       <c r="W10" t="n">
-        <v>195.2500315327869</v>
+        <v>224.666950679165</v>
       </c>
       <c r="X10" t="n">
-        <v>195.2500315327869</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
         <v>53.94298182036446</v>
@@ -5027,22 +5027,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5060,7 +5060,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
@@ -5124,10 +5124,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="L12" t="n">
-        <v>323.6581146605672</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M12" t="n">
-        <v>323.6581146605672</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="N12" t="n">
         <v>1128.069692924718</v>
@@ -5227,16 +5227,16 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324571</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W13" t="n">
-        <v>130.9054447954965</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X13" t="n">
         <v>97.21709146028584</v>
@@ -5258,19 +5258,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805463</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822456</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5279,7 +5279,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,7 +5294,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5473,7 +5473,7 @@
         <v>420.3226148324571</v>
       </c>
       <c r="W16" t="n">
-        <v>130.9054447954965</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
         <v>97.21709146028584</v>
@@ -5492,40 +5492,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5540,22 +5540,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5601,7 +5601,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M18" t="n">
-        <v>783.5490372870998</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="N18" t="n">
         <v>1128.069692924718</v>
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>105.8287400488913</v>
       </c>
       <c r="C19" t="n">
         <v>97.21709146028584</v>
@@ -5674,19 +5674,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5698,25 +5698,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1375.025382843599</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1151.239967633105</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U19" t="n">
-        <v>862.1113288466635</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V19" t="n">
-        <v>607.4268406407766</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="W19" t="n">
-        <v>318.0096706038159</v>
+        <v>554.6108700904388</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>326.6213191924214</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>105.8287400488913</v>
       </c>
     </row>
     <row r="20">
@@ -5732,43 +5732,43 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823795</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5777,10 +5777,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
         <v>4262.3578574653</v>
@@ -5835,7 +5835,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="L21" t="n">
-        <v>323.6581146605672</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M21" t="n">
         <v>323.6581146605672</v>
@@ -5938,16 +5938,16 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.92115703528</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U22" t="n">
-        <v>898.7925182488382</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X22" t="n">
         <v>318.0096706038159</v>
@@ -5969,55 +5969,55 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823804</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514099</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
         <v>358.2718071316295</v>
@@ -6063,16 +6063,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="M24" t="n">
         <v>323.6581146605672</v>
@@ -6102,7 +6102,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
         <v>1571.258395043133</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C25" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D25" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E25" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F25" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G25" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H25" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J25" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K25" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L25" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M25" t="n">
         <v>1048.866260860496</v>
@@ -6169,28 +6169,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R25" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S25" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T25" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U25" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V25" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W25" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X25" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y25" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,34 +6209,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643324</v>
@@ -6257,19 +6257,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F27" t="n">
         <v>358.2718071316295</v>
@@ -6312,7 +6312,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="M27" t="n">
-        <v>323.6581146605669</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N27" t="n">
         <v>1128.069692924718</v>
@@ -6339,7 +6339,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W27" t="n">
         <v>1571.258395043133</v>
@@ -6367,16 +6367,16 @@
         <v>478.0475988506728</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G28" t="n">
-        <v>221.5295092103131</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H28" t="n">
-        <v>139.9315917982975</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028587</v>
@@ -6385,10 +6385,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K28" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L28" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M28" t="n">
         <v>1048.866260860496</v>
@@ -6403,7 +6403,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q28" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R28" t="n">
         <v>1996.265827986523</v>
@@ -6415,7 +6415,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U28" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V28" t="n">
         <v>1304.027639859417</v>
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,25 +6446,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823804</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514099</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795208</v>
@@ -6476,7 +6476,7 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899128</v>
@@ -6494,19 +6494,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F30" t="n">
         <v>358.2718071316295</v>
@@ -6549,7 +6549,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="M30" t="n">
-        <v>323.6581146605669</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N30" t="n">
         <v>1128.069692924718</v>
@@ -6576,7 +6576,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W30" t="n">
         <v>1571.258395043133</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H31" t="n">
         <v>139.9315917982973</v>
@@ -6619,13 +6619,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6640,10 +6640,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R31" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S31" t="n">
         <v>1865.165908942116</v>
@@ -6655,16 +6655,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W31" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6765,28 +6765,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="M33" t="n">
-        <v>323.6581146605669</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N33" t="n">
         <v>1128.069692924718</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083203</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F34" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6947,40 +6947,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,19 +7011,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L36" t="n">
-        <v>323.6581146605669</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M36" t="n">
-        <v>323.6581146605669</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N36" t="n">
         <v>1128.069692924718</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108325</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,67 +7157,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,19 +7248,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L39" t="n">
-        <v>477.8717457309831</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M39" t="n">
-        <v>798.2070652606849</v>
+        <v>783.5490372870998</v>
       </c>
       <c r="N39" t="n">
         <v>1128.069692924718</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254957</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7385,49 +7385,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,19 +7485,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L42" t="n">
-        <v>711.1141612171746</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="M42" t="n">
-        <v>711.1141612171746</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N42" t="n">
         <v>1128.069692924718</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504512</v>
@@ -7564,16 +7564,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525403</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,19 +7722,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L45" t="n">
-        <v>327.180197328635</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M45" t="n">
-        <v>783.5490372870998</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N45" t="n">
         <v>1128.069692924718</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8766,16 +8766,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>367.2826860427847</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>370.8623401849285</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -9006,10 +9006,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9240,16 +9240,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9477,16 +9477,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>367.2826860427847</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9714,16 +9714,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9957,10 +9957,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>370.8623401849284</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
@@ -10197,7 +10197,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>370.8623401849284</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10434,7 +10434,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>370.8623401849284</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10668,10 +10668,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>367.2826860427843</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10902,16 +10902,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11142,13 +11142,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>87.97263034698005</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11379,10 +11379,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -22553,16 +22553,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>143.3310848493361</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>16.75329918194079</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22711,13 +22711,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22726,7 +22726,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22762,16 +22762,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>112.4847882031429</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>192.3581855871786</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="X16" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>158.7212889959084</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23938,10 +23938,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>185.2331835502361</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24178,19 +24178,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>185.2331835502362</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>189.3952778808842</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,19 +26372,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>54505.5121037125</v>
+        <v>54505.51210371254</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>54505.51210371251</v>
@@ -26421,34 +26421,34 @@
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905759184</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759242</v>
       </c>
       <c r="I4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189641</v>
       </c>
       <c r="J4" t="n">
         <v>23206.58093189634</v>
       </c>
       <c r="K4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189641</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="N4" t="n">
         <v>23206.58093189634</v>
@@ -26457,7 +26457,7 @@
         <v>23206.58093189634</v>
       </c>
       <c r="P4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189635</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26485,10 +26485,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="J5" t="n">
         <v>97715.1058200254</v>
@@ -26497,19 +26497,19 @@
         <v>97715.1058200254</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="M5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="N5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="O5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="P5" t="n">
         <v>97715.1058200254</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.1058200254</v>
-      </c>
-      <c r="N5" t="n">
-        <v>97715.1058200254</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.1058200254</v>
-      </c>
-      <c r="P5" t="n">
-        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-763162.6815168753</v>
+        <v>-763376.0935067538</v>
       </c>
       <c r="C6" t="n">
         <v>-221918.2172440285</v>
@@ -26528,22 +26528,22 @@
         <v>-221918.2172440285</v>
       </c>
       <c r="E6" t="n">
-        <v>-617935.1561161885</v>
+        <v>-618032.6152421607</v>
       </c>
       <c r="F6" t="n">
-        <v>-92775.11963929249</v>
+        <v>-92872.57876526465</v>
       </c>
       <c r="G6" t="n">
-        <v>-92775.11963929258</v>
+        <v>-92872.57876526467</v>
       </c>
       <c r="H6" t="n">
-        <v>-92775.1196392925</v>
+        <v>-92872.57876526471</v>
       </c>
       <c r="I6" t="n">
         <v>-175427.1988556343</v>
       </c>
       <c r="J6" t="n">
-        <v>-297344.9059445147</v>
+        <v>-297344.9059445148</v>
       </c>
       <c r="K6" t="n">
         <v>-120921.6867519217</v>
@@ -26555,7 +26555,7 @@
         <v>-255722.7019857589</v>
       </c>
       <c r="N6" t="n">
-        <v>-175427.1988556343</v>
+        <v>-175427.1988556342</v>
       </c>
       <c r="O6" t="n">
         <v>-120921.6867519217</v>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964064</v>
       </c>
-      <c r="N2" t="n">
-        <v>68.13189012964065</v>
-      </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,13 +26744,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541001</v>
@@ -26759,22 +26759,22 @@
         <v>830.3824054541001</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26920,13 +26920,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,13 +27157,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>318.9780031893399</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>301.6588021167508</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,13 +27543,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>202.6835682680297</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>170.572784990379</v>
       </c>
       <c r="T5" t="n">
-        <v>5.330825589190169</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>146.0010344417966</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>7.012336859473074</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,16 +27853,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>95.39299015045879</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27907,16 +27907,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>239.7106137347081</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>56.69292621882462</v>
       </c>
       <c r="Y10" t="n">
-        <v>78.69067413679656</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1.20792265079217e-12</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="26">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="32">
@@ -29767,7 +29767,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,22 +31118,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>132.9984977071298</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
         <v>205.8702969983122</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31604,10 +31604,10 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
-        <v>87.78329382423996</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>132.9984977071305</v>
       </c>
       <c r="M9" t="n">
         <v>205.8702969983122</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
@@ -31850,7 +31850,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32078,10 +32078,10 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>370.8623401849288</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>369.693561916275</v>
+        <v>370.8623401849285</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32403,10 +32403,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32470,7 +32470,7 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961213</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041487</v>
@@ -32549,16 +32549,16 @@
         <v>61.49530078127063</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N21" t="n">
         <v>464.5362854813461</v>
@@ -32707,7 +32707,7 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961222</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041487</v>
@@ -32786,16 +32786,16 @@
         <v>61.49530078127063</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>370.8623401849288</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>464.5362854813461</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304457</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,13 +33014,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -33029,19 +33029,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33114,10 +33114,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961222</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,16 +33251,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -33269,16 +33269,16 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33351,10 +33351,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33509,7 +33509,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33740,13 +33740,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961211</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33974,16 +33974,16 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>152.213685254897</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>369.693561916275</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961202</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34214,13 +34214,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>367.2826860427847</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34369,7 +34369,7 @@
         <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041499</v>
       </c>
       <c r="L44" t="n">
         <v>526.796267130444</v>
@@ -34451,13 +34451,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>137.40759639269</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35252,10 +35252,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,16 +35492,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>228.7283062629105</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>228.7283062629101</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
@@ -35510,7 +35510,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,13 +35969,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>693.2645917442566</v>
+        <v>228.7283062629101</v>
       </c>
       <c r="N18" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
@@ -35984,7 +35984,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686862</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415088</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303329</v>
@@ -36203,10 +36203,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
         <v>228.7283062629105</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>812.5369477415663</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415096</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303329</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K25" t="n">
         <v>219.8343186595512</v>
@@ -36522,10 +36522,10 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M25" t="n">
-        <v>342.441731308613</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N25" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O25" t="n">
         <v>304.3692416502435</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109089</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,13 +36680,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>228.7283062629101</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
@@ -36695,7 +36695,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36759,13 +36759,13 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M28" t="n">
-        <v>342.4417313086132</v>
+        <v>342.441731308613</v>
       </c>
       <c r="N28" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O28" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P28" t="n">
         <v>246.5154907414414</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415096</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,13 +36917,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>228.7283062629101</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
@@ -36932,7 +36932,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -36996,13 +36996,13 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M31" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N31" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P31" t="n">
         <v>246.5154907414414</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,13 +37154,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>228.7283062629101</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714618</v>
@@ -37169,7 +37169,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,16 +37388,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>228.7283062629101</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
@@ -37406,7 +37406,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415086</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,16 +37625,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>384.499650778482</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>323.5710298279816</v>
+        <v>693.2645917442566</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
         <v>525.5561835714618</v>
@@ -37643,7 +37643,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,10 +37710,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415077</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,16 +37862,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>421.167203744993</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
@@ -37880,7 +37880,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,10 +37947,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38017,7 +38017,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38099,13 +38099,13 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>460.9786262206716</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="N45" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
         <v>676.2260215178376</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
